--- a/linkedin_scrp/linkedin_profiles.xlsx
+++ b/linkedin_scrp/linkedin_profiles.xlsx
@@ -483,7 +483,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://media.licdn.com/dms/image/v2/C5603AQFY8szSrdrOEQ/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1643203007711?e=1758758400&amp;v=beta&amp;t=y2y2kg3-6hFuvTtfRh0JG4TYm90QI0ItWqQlbnAXo-s</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Web Developer at Neosoft Technologies.</t>
+          <t>Corporate Development &amp; Strategy at NeoSOFT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -503,33 +507,37 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://media.licdn.com/dms/image/v2/C5603AQFasUQ7tSNH5g/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1562403247257?e=1758153600&amp;v=beta&amp;t=vIF-8n893inAOuLV1yUbJ8ziyDIihOlZobitNAKX4t0</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LinkedIn Member</t>
+          <t>Sanjay Mulkikar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HR- Sr talent Acquisition Specialist</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Vice President Human Resources @ NeoSoft Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3rd+</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sanjay-mulkikar123?miniProfileUrn=urn%3Ali%3Afs_miniProfile%3AACoAAAKuhHABsb9v7gCGYvFBmVA5QP3CCXbtSxs</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D4D03AQFe4YQN4sXmVg/profile-displayphoto-shrink_100_100/B4DZborBQ4IAAY-/0/1747660314588?e=1758153600&amp;v=beta&amp;t=qV6a9DOxisAqUHcognC1Zzd3a7QnwBgxi6rW96wfD44</t>
+          <t>https://media.licdn.com/dms/image/v2/C5103AQEkI9_cSKnrJQ/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1581928047914?e=1758758400&amp;v=beta&amp;t=WQvjiXRQ9RwB15rfav0WxA0wiiouRSF7eLPsD3tXRCc</t>
         </is>
       </c>
     </row>
@@ -541,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Human Resources Professional</t>
+          <t>HR Specialist @ NeoSOFT Technologies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -553,7 +561,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D4D03AQFA8kdBbS5m4w/profile-displayphoto-shrink_100_100/B4DZXx.Tp9G4AY-/0/1743521417569?e=1758153600&amp;v=beta&amp;t=Xty2HFdpSETZCa_jVPS8OAZ7OIbh17UehLn9_8FaqRI</t>
+          <t>https://media.licdn.com/dms/image/v2/D4D03AQFw-lpyRVVJlw/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1707367083867?e=1758758400&amp;v=beta&amp;t=pw5MnFot6N2XYmdpml_mkZTqEDU_Ior-9N0g_x2-9HY</t>
         </is>
       </c>
     </row>
@@ -565,7 +573,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Assistant Manager HRBP at NeoSOFT</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -577,7 +585,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/C4D03AQH93w_eMTRg5Q/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1649253148875?e=1758153600&amp;v=beta&amp;t=xHDXFQmprJE_BmLZ73EIbGfe49a6eNsnloSMg9ubNRQ</t>
+          <t>https://media.licdn.com/dms/image/v2/D4D03AQGUeTZZJEINoQ/profile-displayphoto-scale_100_100/B4DZis.A5yG8Ac-/0/1755248596245?e=1758758400&amp;v=beta&amp;t=ObahWxQtQ9bDeMfh7bx54n52Ca2_qke7IFrBOOGqSj8</t>
         </is>
       </c>
     </row>
@@ -589,7 +597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Engineer/Analyst at NeoSOFT Private Limited</t>
+          <t>working as hr operations in hdfc life managing onboarding and releasing offers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -601,7 +609,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D4D35AQHKCkuWPZXqoQ/profile-framedphoto-shrink_100_100/B4DZZTntCLG8As-/0/1745159639611?e=1756022400&amp;v=beta&amp;t=7f9PnmJOxtpqT5ToxpW5EvkE91YcIBEgesgxT0mYfNY</t>
+          <t>https://media.licdn.com/dms/image/v2/D5603AQErFx8SWtQYMA/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1699978963109?e=1758758400&amp;v=beta&amp;t=DucD6tHVaOpJzFARVqhAONzr1ahbG8a3G5L8T3vY8Jw</t>
         </is>
       </c>
     </row>
@@ -613,7 +621,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Software Engineer at NeoSoft</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -633,7 +641,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Learning &amp; Development Consultant</t>
+          <t>Assistant Manager at NeoSOFT Technologies (A CMMi Level 5 Organization)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -645,7 +653,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D5603AQGvtiOe8ksKug/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1724749386159?e=1758153600&amp;v=beta&amp;t=hywO5AuQziizClyI_DNOca4Gh-XEIYBEMbRb1ZRxdbM</t>
+          <t>https://media.licdn.com/dms/image/v2/D5603AQErgMMQtfhc3w/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1730975222019?e=1758758400&amp;v=beta&amp;t=r-rSTfn12AhuNN48ZqQFGGeChHzTCUNkCGERugZEjAU</t>
         </is>
       </c>
     </row>
@@ -657,19 +665,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Web Developer at Neosoft Technologies.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D4D35AQGaBcM3f54yng/profile-framedphoto-shrink_100_100/profile-framedphoto-shrink_100_100/0/1710836950924?e=1756022400&amp;v=beta&amp;t=ySa9db_fOiFhhoFwKY8CVII4BpImuegkBRlEM57OLwo</t>
+          <t>https://media.licdn.com/dms/image/v2/C5603AQFasUQ7tSNH5g/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1562403247257?e=1758758400&amp;v=beta&amp;t=LLU8Rj-xsV2VrjMPEZsib14BqH-MML0zqeGEp_XkoAI</t>
         </is>
       </c>
     </row>
@@ -681,7 +689,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Student at University of Mumbai</t>
+          <t>Administration &amp; Infrastructure</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -693,7 +701,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/D4D03AQHZOIq0kiDBvw/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1732394489596?e=1758153600&amp;v=beta&amp;t=2tdmXZhq6Xytlvee0yWZ2guY67sRA1IynW0s4bgZOVw</t>
+          <t>https://media.licdn.com/dms/image/v2/C5603AQGhAV-hVk-kGw/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1594821422044?e=1758758400&amp;v=beta&amp;t=zVU2PT12leMITQqhbGvvA5ZNDMw8SH4uTCdBBuCnk0g</t>
         </is>
       </c>
     </row>
@@ -705,19 +713,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Talent Acquisition Executive at NeoSOFT Technologies (A CMMi Level 5 Organization)</t>
+          <t>Associate Team Lead</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kalyan</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://media.licdn.com/dms/image/v2/C4E03AQFefC1f7Bugng/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1637521510322?e=1758153600&amp;v=beta&amp;t=qdNKDh_9YZ4YeyjCZ7f6brtEiBbhe0hfsRB7R4vrZYs</t>
+          <t>https://media.licdn.com/dms/image/v2/C4D03AQEEmQRXsczOsw/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1651506014309?e=1758758400&amp;v=beta&amp;t=PRUyI5fyrrn-d0SHvhYzIOafsSaDuL0EjFmVwn85IIA</t>
         </is>
       </c>
     </row>
@@ -729,7 +737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VP Technology</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -739,11 +747,7 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://media.licdn.com/dms/image/v2/C4E03AQG1IZlH0xGXjg/profile-displayphoto-shrink_100_100/profile-displayphoto-shrink_100_100/0/1518466509793?e=1758153600&amp;v=beta&amp;t=U3VlpBvnt8H5j2xM3dhfdnXdtgByaCMXSwVl6wDRUbY</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
